--- a/teaching/data/Python/Student_data.xlsx
+++ b/teaching/data/Python/Student_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuo/Dropbox (UFL)/Caleb-Huo.github.io/teaching/data/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A4F1203-E20A-964C-944B-617347A38211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD14C42-835F-F541-BF7A-780BB79C9B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="800" windowWidth="28040" windowHeight="16020" xr2:uid="{3FBF7760-5447-D34F-89FB-7F69A1F779EC}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16020" xr2:uid="{3FBF7760-5447-D34F-89FB-7F69A1F779EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,13 +105,13 @@
     <t>junior</t>
   </si>
   <si>
-    <t>seniors</t>
-  </si>
-  <si>
     <t>Initial_GPA</t>
   </si>
   <si>
     <t>Study_time</t>
+  </si>
+  <si>
+    <t>senior</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,10 +482,10 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>3.6</v>
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -632,7 +632,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>3.1</v>
